--- a/assets/files/redirect.xlsx
+++ b/assets/files/redirect.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="147">
   <si>
     <t>Table 1</t>
   </si>
@@ -20,60 +20,25 @@
     <t>NSF-SBIR</t>
   </si>
   <si>
-    <t>Proposed</t>
-  </si>
-  <si>
     <t>Current</t>
   </si>
   <si>
     <t>https://www.nsf.gov/eng/iip/sbir/home.jsp</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>https://seedfund.nsf.gov</t>
-    </r>
+    <t>https://seedfund.nsf.gov</t>
   </si>
   <si>
     <t>https://www.nsf.gov/eng/iip/sbir/documents/Phase_I_Proposal_Preparation_Booklet.pdf</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>https://seedfund.nsf.gov</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>/assets/files/applicants/Phase_I_Proposal_Preparation_Booklet.pdf</t>
-    </r>
+    <t>https://seedfund.nsf.gov/assets/files/applicants/Phase_I_Proposal_Preparation_Booklet.pdf</t>
   </si>
   <si>
     <t>https://www.nsf.gov/eng/iip/sbir/howtoapply.jsp</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>https://seedfund.nsf.gov/apply/</t>
-    </r>
+    <t>https://seedfund.nsf.gov/apply/</t>
   </si>
   <si>
     <t>https://www.nsf.gov/eng/iip/sbir/goodfit.jsp</t>
@@ -82,23 +47,7 @@
     <t>https://www.nsf.gov/eng/iip/sbir/documents/About_NSF_SBIR_STTR.pdf</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>https://seedfund.nsf.gov</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>/assets/files/applicants/About_NSF_SBIR_STTR.pdf</t>
-    </r>
+    <t>https://seedfund.nsf.gov/assets/files/applicants/About_NSF_SBIR_STTR.pdf</t>
   </si>
   <si>
     <t>https://www.nsf.gov/eng/iip/sbir/recent_call.jsp</t>
@@ -110,15 +59,7 @@
     <t>https://www.nsf.gov/eng/iip/sbir/fastlane1.jsp</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>https://seedfund.nsf.gov/fastlane/fastlane-1/</t>
-    </r>
+    <t>https://seedfund.nsf.gov/fastlane/fastlane-1/</t>
   </si>
   <si>
     <t>https://www.nsf.gov/eng/iip/sbir/documents/Phase_II_Proposal_Preparation_Booklet.pdf</t>
@@ -141,43 +82,19 @@
     <t>https://www.nsf.gov/eng/iip/sbir/portfolio.jsp</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>https://seedfund.nsf.gov/portfolio/</t>
-    </r>
+    <t>https://seedfund.nsf.gov/portfolio/</t>
   </si>
   <si>
     <t>https://www.nsf.gov/eng/iip/sbir/review_process.jsp</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>https://seedfund.nsf.gov/review/</t>
-    </r>
+    <t>https://seedfund.nsf.gov/review/</t>
   </si>
   <si>
     <t>https://www.nsf.gov/eng/iip/sbir/peer_review.jsp</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>https://seedfund.nsf.gov/review/peer-review/</t>
-    </r>
+    <t>https://seedfund.nsf.gov/review/peer-review/</t>
   </si>
   <si>
     <t>https://www.nsf.gov/eng/iip/sbir/Forms/coiform.docx</t>
@@ -234,57 +151,25 @@
     <t>https://www.nsf.gov/eng/iip/sbir/panelist_system.jsp</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>https://seedfund.nsf.gov/review/panelist-system/</t>
-    </r>
+    <t>https://seedfund.nsf.gov/review/panelist-system/</t>
   </si>
   <si>
     <t>https://www.nsf.gov/eng/iip/sbir/peer_mail_review.jsp</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>https://seedfund.nsf.gov/review/peer-mail-review/</t>
-    </r>
+    <t>https://seedfund.nsf.gov/review/peer-mail-review/</t>
   </si>
   <si>
     <t>https://www.nsf.gov/eng/iip/sbir/travel.jsp</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>https://seedfund.nsf.gov/review/travel/</t>
-    </r>
+    <t>https://seedfund.nsf.gov/review/travel/</t>
   </si>
   <si>
     <t>https://www.nsf.gov/eng/iip/sbir/virtual_panelist.jsp</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>https://seedfund.nsf.gov/review/virtual-panelist/</t>
-    </r>
+    <t>https://seedfund.nsf.gov/review/virtual-panelist/</t>
   </si>
   <si>
     <t>https://www.nsf.gov/eng/iip/sbir/topics.jsp</t>
@@ -293,169 +178,73 @@
     <t>https://www.nsf.gov/eng/iip/sbir/topics/BM.jsp</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>https://seedfund.nsf.gov/topics/biomedical/</t>
-    </r>
+    <t>https://seedfund.nsf.gov/topics/biomedical/</t>
   </si>
   <si>
     <t>https://www.nsf.gov/eng/iip/sbir/topics/BT.jsp</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>https://seedfund.nsf.gov/topics/biological/</t>
-    </r>
+    <t>https://seedfund.nsf.gov/topics/biological/</t>
   </si>
   <si>
     <t>https://www.nsf.gov/eng/iip/sbir/topics/CT.jsp</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>https://seedfund.nsf.gov/topics/chemical-and-environmental/</t>
-    </r>
+    <t>https://seedfund.nsf.gov/topics/chemical-and-environmental/</t>
   </si>
   <si>
     <t>https://www.nsf.gov/eng/iip/sbir/topics/EA.jsp</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>https://seedfund.nsf.gov/topics/educational/</t>
-    </r>
+    <t>https://seedfund.nsf.gov/topics/educational/</t>
   </si>
   <si>
     <t>https://www.nsf.gov/eng/iip/sbir/topics/EW.jsp</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>https://seedfund.nsf.gov/topics/electronic-hardware-robotics-and-wireless/</t>
-    </r>
+    <t>https://seedfund.nsf.gov/topics/electronic-hardware-robotics-and-wireless/</t>
   </si>
   <si>
     <t>https://www.nsf.gov/eng/iip/sbir/topics/IoT.jsp</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>https://seedfund.nsf.gov/topics/internet-of-things/</t>
-    </r>
+    <t>https://seedfund.nsf.gov/topics/internet-of-things/</t>
   </si>
   <si>
     <t>https://www.nsf.gov/eng/iip/sbir/topics/IT.jsp</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>https://seedfund.nsf.gov/topics/information-technologies/</t>
-    </r>
+    <t>https://seedfund.nsf.gov/topics/information-technologies/</t>
   </si>
   <si>
     <t>https://www.nsf.gov/eng/iip/sbir/topics/MI.jsp</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>https://seedfund.nsf.gov/topics/materials-and-instrumentation/</t>
-    </r>
+    <t>https://seedfund.nsf.gov/topics/materials-and-instrumentation/</t>
   </si>
   <si>
     <t>https://www.nsf.gov/eng/iip/sbir/topics/MN.jsp</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>https://seedfund.nsf.gov/topics/manufacturing-and-nanotechnology/</t>
-    </r>
+    <t>https://seedfund.nsf.gov/topics/manufacturing-and-nanotechnology/</t>
   </si>
   <si>
     <t>https://www.nsf.gov/eng/iip/sbir/topics/OT.jsp</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>https://seedfund.nsf.gov/topics/other/</t>
-    </r>
+    <t>https://seedfund.nsf.gov/topics/other/</t>
   </si>
   <si>
     <t>https://www.nsf.gov/eng/iip/sbir/topics/SH.jsp</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>https://seedfund.nsf.gov/topics/smart-health/</t>
-    </r>
+    <t>https://seedfund.nsf.gov/topics/smart-health/</t>
   </si>
   <si>
     <t>https://www.nsf.gov/eng/iip/sbir/topics/SP.jsp</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>https://seedfund.nsf.gov/topics/semiconductors-and-photonic-devices/</t>
-    </r>
+    <t>https://seedfund.nsf.gov/topics/semiconductors-and-photonic-devices/</t>
   </si>
   <si>
     <t>https://www.nsf.gov/eng/iip/sbir/topics/Combined.pdf</t>
@@ -470,23 +259,7 @@
     <t>https://www.nsf.gov/eng/iip/sbir/grantees.jsp</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="14"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>https://seedfund.nsf.gov</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="14"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>/resources/awardees/phase-1/</t>
-    </r>
+    <t>https://seedfund.nsf.gov/resources/awardees/phase-1/</t>
   </si>
   <si>
     <r>
@@ -503,23 +276,7 @@
     <t>https://www.nsf.gov/eng/iip/sbir/ambassador.jsp</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="14"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>https://seedfund.nsf.gov</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="14"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>/resources/awardees/phase-1/ambassador/</t>
-    </r>
+    <t>https://seedfund.nsf.gov/resources/awardees/phase-1/ambassador/</t>
   </si>
   <si>
     <r>
@@ -536,23 +293,7 @@
     <t>https://www.nsf.gov/eng/iip/sbir/documents/NSF_SBIR_Abassador_Toolkit.pdf</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="14"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>https://seedfund.nsf.gov</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="14"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>/assets/files/awardees/NSF_SBIR_Abassador_Toolkit.pdf</t>
-    </r>
+    <t>https://seedfund.nsf.gov/assets/files/awardees/NSF_SBIR_Abassador_Toolkit.pdf</t>
   </si>
   <si>
     <r>
@@ -569,23 +310,7 @@
     <t>https://www.nsf.gov/eng/iip/sbir/reporting.jsp</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="14"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>https://seedfund.nsf.gov</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="14"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>/resources/awardees/reporting/phase-1/</t>
-    </r>
+    <t>https://seedfund.nsf.gov/resources/awardees/phase-1/reporting/</t>
   </si>
   <si>
     <r>
@@ -602,31 +327,7 @@
     <t>https://www.nsf.gov/eng/iip/sbir/portfolio/researchexp.jsp</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="14"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>https://seedfund.nsf.gov</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="14"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>/resources/awardees/researchexp/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
+    <t xml:space="preserve">https://seedfund.nsf.gov/resources/awardees/researchexp/ </t>
   </si>
   <si>
     <r>
@@ -643,14 +344,7 @@
     <t>https://www.nsf.gov/eng/iip/sbir/portfolio/RET_Flyer.pdf</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="14"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>https://seedfund.nsf.gov/assets/files/awardees/RET_Flyer.pdf</t>
-    </r>
+    <t>https://seedfund.nsf.gov/assets/files/awardees/RET_Flyer.pdf</t>
   </si>
   <si>
     <r>
@@ -667,14 +361,7 @@
     <t>https://www.nsf.gov/eng/iip/sbir/portfolio/RAHSS_Flyer.pdf</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="14"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>https://seedfund.nsf.gov/assets/files/awardees/RAHSS_Flyer.pdf</t>
-    </r>
+    <t>https://seedfund.nsf.gov/assets/files/awardees/RAHSS_Flyer.pdf</t>
   </si>
   <si>
     <r>
@@ -691,14 +378,7 @@
     <t>https://www.nsf.gov/eng/iip/sbir/documents/Sample_ContactingNSFSBIRCompanies.docx</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="14"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>https://seedfund.nsf.gov/assets/files/awardees/Sample_ContactingNSFSBIRCompanies.docx</t>
-    </r>
+    <t>https://seedfund.nsf.gov/assets/files/awardees/Sample_ContactingNSFSBIRCompanies.docx</t>
   </si>
   <si>
     <r>
@@ -715,23 +395,7 @@
     <t>https://www.nsf.gov/eng/iip/sbir/Supplement/</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="15"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>https://seedfund.nsf.gov/resources/awardees/phase-2/supplement</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>/</t>
-    </r>
+    <t>https://seedfund.nsf.gov/resources/awardees/phase-2/supplement/</t>
   </si>
   <si>
     <r>
@@ -748,23 +412,7 @@
     <t>https://www.nsf.gov/eng/iip/sbir/Supplement/supplemental_phase-iib.jsp</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="15"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>https://seedfund.nsf.gov/resources/awardees/phase-2/phase-2b</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="16"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>/</t>
-    </r>
+    <t>https://seedfund.nsf.gov/resources/awardees/phase-2/phase-2b/</t>
   </si>
   <si>
     <r>
@@ -789,23 +437,7 @@
     <t>https://www.nsf.gov/eng/iip/sbir/Supplement/instructions.jsp</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="15"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>https://seedfund.nsf.gov/resources/awardees/phase-2/instructions</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>/</t>
-    </r>
+    <t>https://seedfund.nsf.gov/resources/awardees/phase-2/instructions/</t>
   </si>
   <si>
     <r>
@@ -864,15 +496,7 @@
     <t>https://www.nsf.gov/eng/iip/sbir/Supplement/ED-Supp-Template.docx</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="14"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>https://seedfund.nsf.gov/assets/files/awardees/ED-Supp-Template.docx</t>
-    </r>
+    <t>https://seedfund.nsf.gov/assets/files/awardees/ED-Supp-Template.docx</t>
   </si>
   <si>
     <r>
@@ -991,23 +615,7 @@
     <t>https://www.nsf.gov/eng/iip/sbir/Forms/comrpt.doc</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>https://seedfund.nsf.gov/assets/files/awardees/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>comrpt.doc</t>
-    </r>
+    <t>https://seedfund.nsf.gov/assets/files/awardees/comrpt.doc</t>
   </si>
   <si>
     <r>
@@ -1032,23 +640,7 @@
     <t>https://www.nsf.gov/eng/iip/sbir/how-to-apply_phaseii.jsp</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="15"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>https://seedfund.nsf.gov/resources/awardees/phase-1/apply/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="16"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t xml:space="preserve"> (separate from Phase 2 https://seedfund.nsf.gov/resources/awardees/phase-2/apply/ )</t>
-    </r>
+    <t>https://seedfund.nsf.gov/resources/awardees/phase-1/apply/</t>
   </si>
   <si>
     <r>
@@ -1090,7 +682,7 @@
     <t>https://www.nsf.gov/eng/iip/sbir/reporting2.jsp</t>
   </si>
   <si>
-    <t>https://seedfund.nsf.gov/resources/awardees/phase-2/reporting/ (separate phase 1 content on its own: https://seedfund.nsf.gov/resources/awardees/phase-1/reporting/)</t>
+    <t>https://seedfund.nsf.gov/resources/awardees/phase-2/reporting/</t>
   </si>
   <si>
     <r>
@@ -1183,7 +775,7 @@
     <t>https://www.nsf.gov/eng/iip/sbir/revised_budget.jsp</t>
   </si>
   <si>
-    <t>https://seedfund.nsf.gov/resources/awardees/rphase-1/evised-budget/</t>
+    <t>https://seedfund.nsf.gov/resources/awardees/phase-1/revised-budget/</t>
   </si>
   <si>
     <r>
@@ -1200,15 +792,7 @@
     <t>https://www.nsf.gov/eng/iip/sbir/contact.jsp</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>https://seedfund.nsf.gov/contact/</t>
-    </r>
+    <t>https://seedfund.nsf.gov/contact/</t>
   </si>
 </sst>
 </file>
@@ -1218,7 +802,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -1244,28 +828,6 @@
       <u val="single"/>
       <sz val="10"/>
       <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="10"/>
-      <color indexed="14"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="14"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="10"/>
-      <color indexed="15"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="16"/>
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
@@ -1432,7 +994,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1441,6 +1003,9 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
@@ -1472,12 +1037,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
@@ -1506,9 +1065,6 @@
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ffbdc0bf"/>
       <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ffb41700"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffcc503e"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -2579,9 +2135,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.33333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="60.4297" style="1" customWidth="1"/>
-    <col min="2" max="2" width="82.3516" style="1" customWidth="1"/>
-    <col min="3" max="3" width="72.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="60.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="72.1719" style="1" customWidth="1"/>
+    <col min="3" max="3" width="72.1719" style="1" customWidth="1"/>
     <col min="4" max="4" width="8.35156" style="1" customWidth="1"/>
     <col min="5" max="5" width="8.35156" style="1" customWidth="1"/>
     <col min="6" max="256" width="8.35156" style="1" customWidth="1"/>
@@ -2592,744 +2148,742 @@
         <v>0</v>
       </c>
       <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="5"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="6"/>
     </row>
     <row r="2" ht="14.7" customHeight="1">
-      <c r="A2" t="s" s="6">
+      <c r="A2" t="s" s="7">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="6">
+      <c r="B2" s="7"/>
+      <c r="C2" t="s" s="7">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="6">
+      <c r="D2" s="8"/>
+      <c r="E2" s="9"/>
+    </row>
+    <row r="3" ht="14.7" customHeight="1">
+      <c r="A3" t="s" s="10">
         <v>3</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="8"/>
-    </row>
-    <row r="3" ht="14.7" customHeight="1">
-      <c r="A3" t="s" s="9">
+      <c r="B3" t="s" s="10">
         <v>4</v>
       </c>
-      <c r="B3" t="s" s="9">
+      <c r="C3" s="11"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="9"/>
+    </row>
+    <row r="4" ht="26.7" customHeight="1">
+      <c r="A4" t="s" s="12">
         <v>5</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="8"/>
-    </row>
-    <row r="4" ht="26.7" customHeight="1">
-      <c r="A4" t="s" s="11">
+      <c r="B4" t="s" s="12">
         <v>6</v>
       </c>
-      <c r="B4" t="s" s="11">
+      <c r="C4" s="13"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="9"/>
+    </row>
+    <row r="5" ht="14.7" customHeight="1">
+      <c r="A5" t="s" s="12">
         <v>7</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="8"/>
-    </row>
-    <row r="5" ht="14.7" customHeight="1">
-      <c r="A5" t="s" s="11">
+      <c r="B5" t="s" s="12">
         <v>8</v>
       </c>
-      <c r="B5" t="s" s="11">
+      <c r="C5" s="13"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="9"/>
+    </row>
+    <row r="6" ht="14.7" customHeight="1">
+      <c r="A6" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="8"/>
-    </row>
-    <row r="6" ht="14.7" customHeight="1">
-      <c r="A6" t="s" s="11">
+      <c r="B6" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="9"/>
+    </row>
+    <row r="7" ht="14.7" customHeight="1">
+      <c r="A7" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="B6" t="s" s="11">
-        <v>9</v>
-      </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="8"/>
-    </row>
-    <row r="7" ht="14.7" customHeight="1">
-      <c r="A7" t="s" s="11">
+      <c r="B7" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="B7" t="s" s="11">
+      <c r="C7" s="13"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="9"/>
+    </row>
+    <row r="8" ht="14.7" customHeight="1">
+      <c r="A8" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
-    </row>
-    <row r="8" ht="14.7" customHeight="1">
-      <c r="A8" t="s" s="11">
+      <c r="B8" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="9"/>
+    </row>
+    <row r="9" ht="14.7" customHeight="1">
+      <c r="A9" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="B8" t="s" s="11">
-        <v>9</v>
-      </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-    </row>
-    <row r="9" ht="14.7" customHeight="1">
-      <c r="A9" t="s" s="11">
+      <c r="B9" t="s" s="12">
+        <v>8</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="9"/>
+    </row>
+    <row r="10" ht="14.7" customHeight="1">
+      <c r="A10" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="B9" t="s" s="11">
-        <v>9</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="8"/>
-    </row>
-    <row r="10" ht="14.7" customHeight="1">
-      <c r="A10" t="s" s="11">
+      <c r="B10" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="B10" t="s" s="11">
+      <c r="C10" s="13"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="9"/>
+    </row>
+    <row r="11" ht="26.7" customHeight="1">
+      <c r="A11" t="s" s="12">
         <v>16</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="8"/>
-    </row>
-    <row r="11" ht="26.7" customHeight="1">
-      <c r="A11" t="s" s="11">
+      <c r="B11" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="B11" t="s" s="11">
+      <c r="C11" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="C11" t="s" s="11">
+      <c r="D11" s="8"/>
+      <c r="E11" s="9"/>
+    </row>
+    <row r="12" ht="14.7" customHeight="1">
+      <c r="A12" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" ht="14.7" customHeight="1">
-      <c r="A12" t="s" s="11">
+      <c r="B12" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="B12" t="s" s="11">
+      <c r="C12" s="13"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="9"/>
+    </row>
+    <row r="13" ht="14.7" customHeight="1">
+      <c r="A13" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="8"/>
-    </row>
-    <row r="13" ht="14.7" customHeight="1">
-      <c r="A13" t="s" s="11">
+      <c r="B13" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="B13" t="s" s="11">
+      <c r="C13" s="13"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="9"/>
+    </row>
+    <row r="14" ht="14.7" customHeight="1">
+      <c r="A14" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="8"/>
-    </row>
-    <row r="14" ht="14.7" customHeight="1">
-      <c r="A14" t="s" s="11">
+      <c r="B14" t="s" s="12">
         <v>24</v>
       </c>
-      <c r="B14" t="s" s="11">
+      <c r="C14" s="13"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="9"/>
+    </row>
+    <row r="15" ht="14.7" customHeight="1">
+      <c r="A15" t="s" s="12">
         <v>25</v>
       </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="8"/>
-    </row>
-    <row r="15" ht="14.7" customHeight="1">
-      <c r="A15" t="s" s="11">
+      <c r="B15" t="s" s="12">
         <v>26</v>
       </c>
-      <c r="B15" t="s" s="11">
+      <c r="C15" t="s" s="12">
         <v>27</v>
       </c>
-      <c r="C15" t="s" s="11">
+      <c r="D15" s="8"/>
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16" ht="14.7" customHeight="1">
+      <c r="A16" t="s" s="12">
         <v>28</v>
       </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="8"/>
-    </row>
-    <row r="16" ht="14.7" customHeight="1">
-      <c r="A16" t="s" s="11">
+      <c r="B16" t="s" s="12">
         <v>29</v>
       </c>
-      <c r="B16" t="s" s="11">
+      <c r="C16" t="s" s="12">
         <v>30</v>
       </c>
-      <c r="C16" t="s" s="11">
+      <c r="D16" s="8"/>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" ht="14.7" customHeight="1">
+      <c r="A17" t="s" s="12">
         <v>31</v>
       </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="8"/>
-    </row>
-    <row r="17" ht="14.7" customHeight="1">
-      <c r="A17" t="s" s="11">
+      <c r="B17" t="s" s="12">
         <v>32</v>
       </c>
-      <c r="B17" t="s" s="11">
+      <c r="C17" t="s" s="12">
         <v>33</v>
       </c>
-      <c r="C17" t="s" s="11">
+      <c r="D17" s="8"/>
+      <c r="E17" s="9"/>
+    </row>
+    <row r="18" ht="14.7" customHeight="1">
+      <c r="A18" t="s" s="12">
         <v>34</v>
       </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="8"/>
-    </row>
-    <row r="18" ht="14.7" customHeight="1">
-      <c r="A18" t="s" s="11">
+      <c r="B18" t="s" s="12">
         <v>35</v>
       </c>
-      <c r="B18" t="s" s="11">
+      <c r="C18" s="13"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="9"/>
+    </row>
+    <row r="19" ht="14.7" customHeight="1">
+      <c r="A19" t="s" s="12">
         <v>36</v>
       </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="8"/>
-    </row>
-    <row r="19" ht="14.7" customHeight="1">
-      <c r="A19" t="s" s="11">
+      <c r="B19" t="s" s="12">
         <v>37</v>
       </c>
-      <c r="B19" t="s" s="11">
+      <c r="C19" s="13"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="9"/>
+    </row>
+    <row r="20" ht="14.7" customHeight="1">
+      <c r="A20" t="s" s="12">
         <v>38</v>
       </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="8"/>
-    </row>
-    <row r="20" ht="14.7" customHeight="1">
-      <c r="A20" t="s" s="11">
+      <c r="B20" t="s" s="12">
         <v>39</v>
       </c>
-      <c r="B20" t="s" s="11">
+      <c r="C20" s="13"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="9"/>
+    </row>
+    <row r="21" ht="14.7" customHeight="1">
+      <c r="A21" t="s" s="12">
         <v>40</v>
       </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="8"/>
-    </row>
-    <row r="21" ht="14.7" customHeight="1">
-      <c r="A21" t="s" s="11">
+      <c r="B21" t="s" s="12">
         <v>41</v>
       </c>
-      <c r="B21" t="s" s="11">
+      <c r="C21" s="13"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="9"/>
+    </row>
+    <row r="22" ht="14.7" customHeight="1">
+      <c r="A22" t="s" s="12">
         <v>42</v>
       </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="8"/>
-    </row>
-    <row r="22" ht="14.7" customHeight="1">
-      <c r="A22" t="s" s="11">
+      <c r="B22" t="s" s="12">
+        <v>20</v>
+      </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="9"/>
+    </row>
+    <row r="23" ht="14.7" customHeight="1">
+      <c r="A23" t="s" s="12">
         <v>43</v>
       </c>
-      <c r="B22" t="s" s="11">
-        <v>21</v>
-      </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="8"/>
-    </row>
-    <row r="23" ht="14.7" customHeight="1">
-      <c r="A23" t="s" s="11">
+      <c r="B23" t="s" s="12">
         <v>44</v>
       </c>
-      <c r="B23" t="s" s="11">
+      <c r="C23" s="13"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="9"/>
+    </row>
+    <row r="24" ht="14.7" customHeight="1">
+      <c r="A24" t="s" s="12">
         <v>45</v>
       </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="8"/>
-    </row>
-    <row r="24" ht="14.7" customHeight="1">
-      <c r="A24" t="s" s="11">
+      <c r="B24" t="s" s="12">
         <v>46</v>
       </c>
-      <c r="B24" t="s" s="11">
+      <c r="C24" s="13"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="9"/>
+    </row>
+    <row r="25" ht="14.7" customHeight="1">
+      <c r="A25" t="s" s="12">
         <v>47</v>
       </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="8"/>
-    </row>
-    <row r="25" ht="14.7" customHeight="1">
-      <c r="A25" t="s" s="11">
+      <c r="B25" t="s" s="12">
         <v>48</v>
       </c>
-      <c r="B25" t="s" s="11">
+      <c r="C25" s="13"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="9"/>
+    </row>
+    <row r="26" ht="14.7" customHeight="1">
+      <c r="A26" t="s" s="12">
         <v>49</v>
       </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="8"/>
-    </row>
-    <row r="26" ht="14.7" customHeight="1">
-      <c r="A26" t="s" s="11">
+      <c r="B26" t="s" s="12">
         <v>50</v>
       </c>
-      <c r="B26" t="s" s="11">
+      <c r="C26" s="13"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="9"/>
+    </row>
+    <row r="27" ht="14.7" customHeight="1">
+      <c r="A27" t="s" s="12">
         <v>51</v>
       </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="8"/>
-    </row>
-    <row r="27" ht="14.7" customHeight="1">
-      <c r="A27" t="s" s="11">
+      <c r="B27" t="s" s="12">
         <v>52</v>
       </c>
-      <c r="B27" t="s" s="11">
+      <c r="C27" s="13"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="9"/>
+    </row>
+    <row r="28" ht="14.7" customHeight="1">
+      <c r="A28" t="s" s="12">
         <v>53</v>
       </c>
-      <c r="C27" s="12"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="8"/>
-    </row>
-    <row r="28" ht="14.7" customHeight="1">
-      <c r="A28" t="s" s="11">
+      <c r="B28" t="s" s="12">
         <v>54</v>
       </c>
-      <c r="B28" t="s" s="11">
+      <c r="C28" s="13"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="9"/>
+    </row>
+    <row r="29" ht="14.7" customHeight="1">
+      <c r="A29" t="s" s="12">
         <v>55</v>
       </c>
-      <c r="C28" s="12"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="8"/>
-    </row>
-    <row r="29" ht="14.7" customHeight="1">
-      <c r="A29" t="s" s="11">
+      <c r="B29" t="s" s="12">
         <v>56</v>
       </c>
-      <c r="B29" t="s" s="11">
+      <c r="C29" s="13"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="9"/>
+    </row>
+    <row r="30" ht="14.7" customHeight="1">
+      <c r="A30" t="s" s="12">
         <v>57</v>
       </c>
-      <c r="C29" s="12"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="8"/>
-    </row>
-    <row r="30" ht="14.7" customHeight="1">
-      <c r="A30" t="s" s="11">
+      <c r="B30" t="s" s="12">
         <v>58</v>
       </c>
-      <c r="B30" t="s" s="11">
+      <c r="C30" s="13"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="9"/>
+    </row>
+    <row r="31" ht="14.7" customHeight="1">
+      <c r="A31" t="s" s="12">
         <v>59</v>
       </c>
-      <c r="C30" s="12"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="8"/>
-    </row>
-    <row r="31" ht="14.7" customHeight="1">
-      <c r="A31" t="s" s="11">
+      <c r="B31" t="s" s="12">
         <v>60</v>
       </c>
-      <c r="B31" t="s" s="11">
+      <c r="C31" s="13"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="9"/>
+    </row>
+    <row r="32" ht="14.7" customHeight="1">
+      <c r="A32" t="s" s="12">
         <v>61</v>
       </c>
-      <c r="C31" s="12"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="8"/>
-    </row>
-    <row r="32" ht="14.7" customHeight="1">
-      <c r="A32" t="s" s="11">
+      <c r="B32" t="s" s="12">
         <v>62</v>
       </c>
-      <c r="B32" t="s" s="11">
+      <c r="C32" s="13"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="9"/>
+    </row>
+    <row r="33" ht="14.7" customHeight="1">
+      <c r="A33" t="s" s="12">
         <v>63</v>
       </c>
-      <c r="C32" s="12"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="8"/>
-    </row>
-    <row r="33" ht="14.7" customHeight="1">
-      <c r="A33" t="s" s="11">
+      <c r="B33" t="s" s="12">
         <v>64</v>
       </c>
-      <c r="B33" t="s" s="11">
+      <c r="C33" s="13"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="9"/>
+    </row>
+    <row r="34" ht="14.7" customHeight="1">
+      <c r="A34" t="s" s="12">
         <v>65</v>
       </c>
-      <c r="C33" s="12"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="8"/>
-    </row>
-    <row r="34" ht="14.7" customHeight="1">
-      <c r="A34" t="s" s="11">
+      <c r="B34" t="s" s="12">
         <v>66</v>
       </c>
-      <c r="B34" t="s" s="11">
+      <c r="C34" s="13"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="9"/>
+    </row>
+    <row r="35" ht="14.7" customHeight="1">
+      <c r="A35" t="s" s="12">
         <v>67</v>
       </c>
-      <c r="C34" s="12"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="8"/>
-    </row>
-    <row r="35" ht="14.7" customHeight="1">
-      <c r="A35" t="s" s="11">
+      <c r="B35" t="s" s="12">
         <v>68</v>
       </c>
-      <c r="B35" t="s" s="11">
+      <c r="C35" t="s" s="12">
         <v>69</v>
       </c>
-      <c r="C35" t="s" s="11">
+      <c r="D35" s="8"/>
+      <c r="E35" s="9"/>
+    </row>
+    <row r="36" ht="14.7" customHeight="1">
+      <c r="A36" t="s" s="12">
         <v>70</v>
       </c>
-      <c r="D35" s="7"/>
-      <c r="E35" s="8"/>
-    </row>
-    <row r="36" ht="14.7" customHeight="1">
-      <c r="A36" t="s" s="11">
+      <c r="B36" t="s" s="12">
         <v>71</v>
       </c>
-      <c r="B36" t="s" s="11">
+      <c r="C36" t="s" s="12">
         <v>72</v>
       </c>
-      <c r="C36" t="s" s="11">
+      <c r="D36" s="8"/>
+      <c r="E36" s="9"/>
+    </row>
+    <row r="37" ht="14.7" customHeight="1">
+      <c r="A37" t="s" s="12">
         <v>73</v>
       </c>
-      <c r="D36" s="7"/>
-      <c r="E36" s="8"/>
-    </row>
-    <row r="37" ht="14.7" customHeight="1">
-      <c r="A37" t="s" s="11">
+      <c r="B37" t="s" s="12">
         <v>74</v>
       </c>
-      <c r="B37" t="s" s="11">
+      <c r="C37" t="s" s="12">
         <v>75</v>
       </c>
-      <c r="C37" t="s" s="11">
+      <c r="D37" s="8"/>
+      <c r="E37" s="9"/>
+    </row>
+    <row r="38" ht="14.7" customHeight="1">
+      <c r="A38" t="s" s="12">
         <v>76</v>
       </c>
-      <c r="D37" s="7"/>
-      <c r="E37" s="8"/>
-    </row>
-    <row r="38" ht="14.7" customHeight="1">
-      <c r="A38" t="s" s="11">
+      <c r="B38" t="s" s="12">
         <v>77</v>
       </c>
-      <c r="B38" t="s" s="11">
+      <c r="C38" t="s" s="12">
         <v>78</v>
       </c>
-      <c r="C38" t="s" s="11">
+      <c r="D38" s="8"/>
+      <c r="E38" s="9"/>
+    </row>
+    <row r="39" ht="14.7" customHeight="1">
+      <c r="A39" t="s" s="12">
         <v>79</v>
       </c>
-      <c r="D38" s="7"/>
-      <c r="E38" s="8"/>
-    </row>
-    <row r="39" ht="14.7" customHeight="1">
-      <c r="A39" t="s" s="11">
+      <c r="B39" t="s" s="12">
         <v>80</v>
       </c>
-      <c r="B39" t="s" s="11">
+      <c r="C39" t="s" s="12">
         <v>81</v>
       </c>
-      <c r="C39" t="s" s="11">
+      <c r="D39" s="8"/>
+      <c r="E39" s="9"/>
+    </row>
+    <row r="40" ht="14.7" customHeight="1">
+      <c r="A40" t="s" s="12">
         <v>82</v>
       </c>
-      <c r="D39" s="7"/>
-      <c r="E39" s="8"/>
-    </row>
-    <row r="40" ht="14.7" customHeight="1">
-      <c r="A40" t="s" s="11">
+      <c r="B40" t="s" s="12">
         <v>83</v>
       </c>
-      <c r="B40" t="s" s="11">
+      <c r="C40" t="s" s="12">
         <v>84</v>
       </c>
-      <c r="C40" t="s" s="11">
+      <c r="D40" s="8"/>
+      <c r="E40" s="9"/>
+    </row>
+    <row r="41" ht="14.7" customHeight="1">
+      <c r="A41" t="s" s="12">
         <v>85</v>
       </c>
-      <c r="D40" s="7"/>
-      <c r="E40" s="8"/>
-    </row>
-    <row r="41" ht="14.7" customHeight="1">
-      <c r="A41" t="s" s="11">
+      <c r="B41" t="s" s="12">
         <v>86</v>
       </c>
-      <c r="B41" t="s" s="11">
+      <c r="C41" t="s" s="12">
         <v>87</v>
       </c>
-      <c r="C41" t="s" s="11">
+      <c r="D41" s="8"/>
+      <c r="E41" s="9"/>
+    </row>
+    <row r="42" ht="14.7" customHeight="1">
+      <c r="A42" t="s" s="12">
         <v>88</v>
       </c>
-      <c r="D41" s="7"/>
-      <c r="E41" s="8"/>
-    </row>
-    <row r="42" ht="14.7" customHeight="1">
-      <c r="A42" t="s" s="11">
+      <c r="B42" t="s" s="12">
         <v>89</v>
       </c>
-      <c r="B42" t="s" s="11">
+      <c r="C42" t="s" s="12">
         <v>90</v>
       </c>
-      <c r="C42" t="s" s="11">
+      <c r="D42" s="8"/>
+      <c r="E42" s="9"/>
+    </row>
+    <row r="43" ht="26.7" customHeight="1">
+      <c r="A43" t="s" s="12">
         <v>91</v>
       </c>
-      <c r="D42" s="7"/>
-      <c r="E42" s="8"/>
-    </row>
-    <row r="43" ht="26.7" customHeight="1">
-      <c r="A43" t="s" s="11">
+      <c r="B43" t="s" s="12">
         <v>92</v>
       </c>
-      <c r="B43" t="s" s="11">
+      <c r="C43" t="s" s="12">
         <v>93</v>
       </c>
-      <c r="C43" t="s" s="11">
+      <c r="D43" s="8"/>
+      <c r="E43" s="9"/>
+    </row>
+    <row r="44" ht="14.7" customHeight="1">
+      <c r="A44" t="s" s="12">
         <v>94</v>
       </c>
-      <c r="D43" s="7"/>
-      <c r="E43" s="8"/>
-    </row>
-    <row r="44" ht="14.7" customHeight="1">
-      <c r="A44" t="s" s="11">
+      <c r="B44" t="s" s="12">
         <v>95</v>
       </c>
-      <c r="B44" t="s" s="11">
+      <c r="C44" t="s" s="12">
         <v>96</v>
       </c>
-      <c r="C44" t="s" s="11">
+      <c r="D44" s="8"/>
+      <c r="E44" s="9"/>
+    </row>
+    <row r="45" ht="14.7" customHeight="1">
+      <c r="A45" t="s" s="12">
         <v>97</v>
       </c>
-      <c r="D44" s="7"/>
-      <c r="E44" s="8"/>
-    </row>
-    <row r="45" ht="14.7" customHeight="1">
-      <c r="A45" t="s" s="11">
+      <c r="B45" t="s" s="12">
         <v>98</v>
       </c>
-      <c r="B45" t="s" s="13">
+      <c r="C45" t="s" s="12">
         <v>99</v>
       </c>
-      <c r="C45" t="s" s="11">
+      <c r="D45" s="8"/>
+      <c r="E45" s="9"/>
+    </row>
+    <row r="46" ht="26.7" customHeight="1">
+      <c r="A46" t="s" s="12">
         <v>100</v>
       </c>
-      <c r="D45" s="7"/>
-      <c r="E45" s="8"/>
-    </row>
-    <row r="46" ht="26.7" customHeight="1">
-      <c r="A46" t="s" s="11">
+      <c r="B46" t="s" s="12">
         <v>101</v>
       </c>
-      <c r="B46" t="s" s="11">
+      <c r="C46" t="s" s="12">
         <v>102</v>
       </c>
-      <c r="C46" t="s" s="11">
+      <c r="D46" s="8"/>
+      <c r="E46" s="9"/>
+    </row>
+    <row r="47" ht="14.7" customHeight="1">
+      <c r="A47" t="s" s="12">
         <v>103</v>
       </c>
-      <c r="D46" s="7"/>
-      <c r="E46" s="8"/>
-    </row>
-    <row r="47" ht="14.7" customHeight="1">
-      <c r="A47" t="s" s="11">
+      <c r="B47" t="s" s="12">
         <v>104</v>
       </c>
-      <c r="B47" t="s" s="11">
+      <c r="C47" t="s" s="12">
         <v>105</v>
       </c>
-      <c r="C47" t="s" s="11">
+      <c r="D47" s="8"/>
+      <c r="E47" s="9"/>
+    </row>
+    <row r="48" ht="14.7" customHeight="1">
+      <c r="A48" t="s" s="12">
         <v>106</v>
       </c>
-      <c r="D47" s="7"/>
-      <c r="E47" s="8"/>
-    </row>
-    <row r="48" ht="14.7" customHeight="1">
-      <c r="A48" t="s" s="11">
+      <c r="B48" t="s" s="12">
         <v>107</v>
       </c>
-      <c r="B48" t="s" s="14">
+      <c r="C48" t="s" s="12">
         <v>108</v>
       </c>
-      <c r="C48" t="s" s="11">
+      <c r="D48" s="8"/>
+      <c r="E48" s="9"/>
+    </row>
+    <row r="49" ht="14.7" customHeight="1">
+      <c r="A49" t="s" s="12">
         <v>109</v>
       </c>
-      <c r="D48" s="7"/>
-      <c r="E48" s="8"/>
-    </row>
-    <row r="49" ht="14.7" customHeight="1">
-      <c r="A49" t="s" s="11">
+      <c r="B49" t="s" s="12">
         <v>110</v>
       </c>
-      <c r="B49" t="s" s="14">
+      <c r="C49" t="s" s="12">
         <v>111</v>
       </c>
-      <c r="C49" t="s" s="11">
+      <c r="D49" s="8"/>
+      <c r="E49" s="9"/>
+    </row>
+    <row r="50" ht="14.7" customHeight="1">
+      <c r="A50" t="s" s="12">
         <v>112</v>
       </c>
-      <c r="D49" s="7"/>
-      <c r="E49" s="8"/>
-    </row>
-    <row r="50" ht="14.7" customHeight="1">
-      <c r="A50" t="s" s="11">
+      <c r="B50" t="s" s="12">
         <v>113</v>
       </c>
-      <c r="B50" t="s" s="14">
+      <c r="C50" t="s" s="12">
         <v>114</v>
       </c>
-      <c r="C50" t="s" s="11">
+      <c r="D50" s="8"/>
+      <c r="E50" s="9"/>
+    </row>
+    <row r="51" ht="14.7" customHeight="1">
+      <c r="A51" t="s" s="12">
         <v>115</v>
       </c>
-      <c r="D50" s="7"/>
-      <c r="E50" s="8"/>
-    </row>
-    <row r="51" ht="14.7" customHeight="1">
-      <c r="A51" t="s" s="11">
+      <c r="B51" t="s" s="12">
         <v>116</v>
       </c>
-      <c r="B51" t="s" s="11">
+      <c r="C51" t="s" s="12">
         <v>117</v>
       </c>
-      <c r="C51" t="s" s="11">
+      <c r="D51" s="8"/>
+      <c r="E51" s="9"/>
+    </row>
+    <row r="52" ht="14.7" customHeight="1">
+      <c r="A52" t="s" s="12">
         <v>118</v>
       </c>
-      <c r="D51" s="7"/>
-      <c r="E51" s="8"/>
-    </row>
-    <row r="52" ht="14.7" customHeight="1">
-      <c r="A52" t="s" s="11">
+      <c r="B52" t="s" s="12">
         <v>119</v>
       </c>
-      <c r="B52" t="s" s="11">
+      <c r="C52" t="s" s="12">
         <v>120</v>
       </c>
-      <c r="C52" t="s" s="11">
+      <c r="D52" s="8"/>
+      <c r="E52" s="9"/>
+    </row>
+    <row r="53" ht="14.7" customHeight="1">
+      <c r="A53" t="s" s="12">
         <v>121</v>
       </c>
-      <c r="D52" s="7"/>
-      <c r="E52" s="8"/>
-    </row>
-    <row r="53" ht="14.7" customHeight="1">
-      <c r="A53" t="s" s="11">
+      <c r="B53" t="s" s="12">
         <v>122</v>
       </c>
-      <c r="B53" t="s" s="11">
+      <c r="C53" t="s" s="12">
         <v>123</v>
       </c>
-      <c r="C53" t="s" s="11">
+      <c r="D53" s="8"/>
+      <c r="E53" s="9"/>
+    </row>
+    <row r="54" ht="14.7" customHeight="1">
+      <c r="A54" t="s" s="12">
+        <v>112</v>
+      </c>
+      <c r="B54" t="s" s="12">
+        <v>113</v>
+      </c>
+      <c r="C54" t="s" s="12">
+        <v>114</v>
+      </c>
+      <c r="D54" s="8"/>
+      <c r="E54" s="9"/>
+    </row>
+    <row r="55" ht="26.7" customHeight="1">
+      <c r="A55" t="s" s="12">
         <v>124</v>
       </c>
-      <c r="D53" s="7"/>
-      <c r="E53" s="8"/>
-    </row>
-    <row r="54" ht="14.7" customHeight="1">
-      <c r="A54" t="s" s="11">
-        <v>113</v>
-      </c>
-      <c r="B54" t="s" s="11">
-        <v>114</v>
-      </c>
-      <c r="C54" t="s" s="11">
-        <v>115</v>
-      </c>
-      <c r="D54" s="7"/>
-      <c r="E54" s="8"/>
-    </row>
-    <row r="55" ht="26.7" customHeight="1">
-      <c r="A55" t="s" s="11">
+      <c r="B55" t="s" s="12">
         <v>125</v>
       </c>
-      <c r="B55" t="s" s="11">
+      <c r="C55" t="s" s="12">
         <v>126</v>
       </c>
-      <c r="C55" t="s" s="11">
+      <c r="D55" s="8"/>
+      <c r="E55" s="9"/>
+    </row>
+    <row r="56" ht="50.7" customHeight="1">
+      <c r="A56" t="s" s="12">
         <v>127</v>
       </c>
-      <c r="D55" s="7"/>
-      <c r="E55" s="8"/>
-    </row>
-    <row r="56" ht="50.7" customHeight="1">
-      <c r="A56" t="s" s="11">
+      <c r="B56" t="s" s="12">
         <v>128</v>
       </c>
-      <c r="B56" t="s" s="13">
+      <c r="C56" t="s" s="12">
         <v>129</v>
       </c>
-      <c r="C56" t="s" s="11">
+      <c r="D56" s="8"/>
+      <c r="E56" s="9"/>
+    </row>
+    <row r="57" ht="26.7" customHeight="1">
+      <c r="A57" t="s" s="12">
         <v>130</v>
       </c>
-      <c r="D56" s="7"/>
-      <c r="E56" s="8"/>
-    </row>
-    <row r="57" ht="26.7" customHeight="1">
-      <c r="A57" t="s" s="11">
+      <c r="B57" t="s" s="12">
         <v>131</v>
       </c>
-      <c r="B57" t="s" s="13">
+      <c r="C57" t="s" s="12">
         <v>132</v>
       </c>
-      <c r="C57" t="s" s="11">
+      <c r="D57" s="8"/>
+      <c r="E57" s="9"/>
+    </row>
+    <row r="58" ht="14.7" customHeight="1">
+      <c r="A58" t="s" s="12">
         <v>133</v>
       </c>
-      <c r="D57" s="7"/>
-      <c r="E57" s="8"/>
-    </row>
-    <row r="58" ht="14.7" customHeight="1">
-      <c r="A58" t="s" s="11">
+      <c r="B58" t="s" s="12">
         <v>134</v>
       </c>
-      <c r="B58" t="s" s="11">
+      <c r="C58" t="s" s="12">
         <v>135</v>
       </c>
-      <c r="C58" t="s" s="11">
+      <c r="D58" s="8"/>
+      <c r="E58" s="9"/>
+    </row>
+    <row r="59" ht="14.7" customHeight="1">
+      <c r="A59" t="s" s="12">
         <v>136</v>
       </c>
-      <c r="D58" s="7"/>
-      <c r="E58" s="8"/>
-    </row>
-    <row r="59" ht="14.7" customHeight="1">
-      <c r="A59" t="s" s="11">
+      <c r="B59" t="s" s="12">
         <v>137</v>
       </c>
-      <c r="B59" t="s" s="11">
+      <c r="C59" t="s" s="12">
         <v>138</v>
       </c>
-      <c r="C59" t="s" s="11">
+      <c r="D59" s="8"/>
+      <c r="E59" s="9"/>
+    </row>
+    <row r="60" ht="14.7" customHeight="1">
+      <c r="A60" t="s" s="12">
         <v>139</v>
       </c>
-      <c r="D59" s="7"/>
-      <c r="E59" s="8"/>
-    </row>
-    <row r="60" ht="14.7" customHeight="1">
-      <c r="A60" t="s" s="11">
+      <c r="B60" t="s" s="12">
         <v>140</v>
       </c>
-      <c r="B60" t="s" s="11">
+      <c r="C60" t="s" s="12">
         <v>141</v>
       </c>
-      <c r="C60" t="s" s="11">
+      <c r="D60" s="8"/>
+      <c r="E60" s="9"/>
+    </row>
+    <row r="61" ht="14.7" customHeight="1">
+      <c r="A61" t="s" s="12">
         <v>142</v>
       </c>
-      <c r="D60" s="7"/>
-      <c r="E60" s="8"/>
-    </row>
-    <row r="61" ht="14.7" customHeight="1">
-      <c r="A61" t="s" s="11">
+      <c r="B61" t="s" s="12">
         <v>143</v>
       </c>
-      <c r="B61" t="s" s="11">
+      <c r="C61" t="s" s="12">
         <v>144</v>
       </c>
-      <c r="C61" t="s" s="11">
+      <c r="D61" s="8"/>
+      <c r="E61" s="9"/>
+    </row>
+    <row r="62" ht="14.7" customHeight="1">
+      <c r="A62" t="s" s="12">
         <v>145</v>
       </c>
-      <c r="D61" s="7"/>
-      <c r="E61" s="8"/>
-    </row>
-    <row r="62" ht="14.7" customHeight="1">
-      <c r="A62" t="s" s="11">
+      <c r="B62" t="s" s="12">
         <v>146</v>
       </c>
-      <c r="B62" t="s" s="11">
-        <v>147</v>
-      </c>
-      <c r="C62" s="12"/>
-      <c r="D62" s="15"/>
-      <c r="E62" s="16"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">
